--- a/resource/file/人工检验表1.xlsx
+++ b/resource/file/人工检验表1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07536B39-D6C5-4540-99B5-41E00F60E4DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1D6D8E-673E-4604-B5D0-82883246A56E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="人工检验表" sheetId="3" r:id="rId1"/>
+    <sheet name="人工检验表1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">人工检验表!$A$1:$P$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">人工检验表1!$A$1:$P$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -717,113 +717,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1156,100 +1156,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64D8336-DD91-4947-90F8-13C792839776}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="5.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="5.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
     <col min="17" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="14.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="48" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="49"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="9" t="s">
         <v>64</v>
       </c>
@@ -1260,169 +1260,169 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="46" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="48" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="50"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="27" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="33"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="W9" s="7"/>
@@ -1431,28 +1431,28 @@
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1460,522 +1460,522 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A11" s="21">
+      <c r="A11" s="44">
         <v>1</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="22">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="28">
         <v>4</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="19" t="s">
+      <c r="K11" s="44"/>
+      <c r="L11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="19" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="19" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="19" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A15" s="21">
+      <c r="A15" s="44">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="22">
+      <c r="I15" s="28">
         <v>5</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="29" t="s">
+      <c r="K15" s="44"/>
+      <c r="L15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="23" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="19" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="19" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19" t="s">
+      <c r="I21" s="28"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="28">
         <v>3</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="19" t="s">
+      <c r="I22" s="28"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="19" t="s">
+      <c r="I23" s="28"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="19" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="19" t="s">
+      <c r="I25" s="28"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="19" t="s">
+      <c r="I26" s="28"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="19" t="s">
+      <c r="I27" s="28"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="19" t="s">
+      <c r="I28" s="28"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="19" t="s">
+      <c r="I29" s="28"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A30" s="22">
+      <c r="A30" s="28">
         <v>4</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="I30" s="28"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="19" t="s">
+      <c r="I31" s="28"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="19.2" customHeight="1">
+    <row r="32" spans="1:18" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -1997,18 +1997,57 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="I15:I31"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="J15:K31"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="J11:K14"/>
+    <mergeCell ref="B11:G14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="H11:H14"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="J10:O10"/>
@@ -2025,58 +2064,19 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="J11:K14"/>
-    <mergeCell ref="B11:G14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="J15:K31"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="I15:I31"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.37916666666666698" top="0.31805555555555598" bottom="0.34930555555555598" header="0.179166666666667" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="2" orientation="portrait" r:id="rId1"/>
